--- a/pred_ohlcv/54_21/2020-01-11 ADA ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-11 ADA ohlcv.xlsx
@@ -1198,7 +1198,7 @@
         <v>164528.65965708</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>164226.48255708</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>164132.02935708</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>149478.76255708</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>157006.16365708</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>165116.57945708</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>176563.21415708</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>176563.21415708</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>174319.52655708</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>174319.52655708</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>175116.76565708</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>159116.76565708</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>160369.72934158</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>114890.02304158</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>114890.02304158</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>114890.02304158</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>114890.02304158</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>114909.45234158</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>111735.49774158</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>126513.42554158</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>126513.42554158</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>126513.42554158</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>117305.69614158</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>118183.88164158</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>103220.25744158</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>103220.25744158</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>108862.61864158</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>108266.60524158</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>108266.60524158</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>108290.69934158</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>104710.53154158</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>96953.83144157998</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>96953.83144157998</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>95902.57670280999</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>105902.57670281</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>98125.57670280999</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>98125.57670280999</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>97806.55730280999</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-285910.0966971897</v>
       </c>
       <c r="H182">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-316143.1185971897</v>
       </c>
       <c r="H197">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-173631.1466029798</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-531246.8250029797</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-531246.8250029797</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-531246.8250029797</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-556871.5163029797</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-556899.9325029796</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-553227.1920029797</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-552958.9074029797</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-552958.9074029797</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-550956.0580029796</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-561225.4786029796</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-612694.6038029796</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-501177.6151741096</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-500949.5039741096</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-526746.1794741096</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-526746.1794741096</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-560295.7793741096</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-547980.4593741096</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-547980.4593741096</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-11 ADA ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-11 ADA ohlcv.xlsx
@@ -1198,7 +1198,7 @@
         <v>164528.65965708</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>164226.48255708</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>164132.02935708</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>149478.76255708</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>157006.16365708</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>165116.57945708</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>176563.21415708</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>176563.21415708</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>174319.52655708</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>174319.52655708</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>175116.76565708</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>159116.76565708</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>160369.72934158</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>114890.02304158</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>114890.02304158</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>114890.02304158</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>114890.02304158</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>114909.45234158</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>111735.49774158</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>126513.42554158</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>126513.42554158</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>126513.42554158</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>117305.69614158</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>118183.88164158</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>103220.25744158</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>103220.25744158</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>108862.61864158</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>108266.60524158</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>108266.60524158</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>108290.69934158</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>104710.53154158</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>96953.83144157998</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>97018.55730280999</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>95902.57670280999</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>105902.57670281</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>98125.57670280999</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-323459.0160971897</v>
       </c>
       <c r="H186">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-316143.1185971897</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-311135.0348046297</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-311117.6765046297</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-304171.0888046297</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-273623.5982046297</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-383697.5502029798</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-383278.3044029798</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-407512.4347029798</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-337703.5352029798</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-324384.0190029798</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-311968.3977029798</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-311068.4977029798</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-311093.4292029798</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>-291049.6802029798</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-298116.1689029798</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-299186.0983029798</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-243119.3707029798</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-242999.5827029798</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-228254.1068029798</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-228231.6163029798</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-173631.1466029798</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-531246.8250029797</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-531246.8250029797</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-531246.8250029797</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-556871.5163029797</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-556899.9325029796</v>
       </c>
       <c r="H241">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-553227.1920029797</v>
       </c>
       <c r="H243">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-552958.9074029797</v>
       </c>
       <c r="H244">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-552958.9074029797</v>
       </c>
       <c r="H245">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-550956.0580029796</v>
       </c>
       <c r="H247">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-561225.4786029796</v>
       </c>
       <c r="H248">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-612694.6038029796</v>
       </c>
       <c r="H249">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-501177.6151741096</v>
       </c>
       <c r="H258">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-500949.5039741096</v>
       </c>
       <c r="H259">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-526746.1794741096</v>
       </c>
       <c r="H267">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-526746.1794741096</v>
       </c>
       <c r="H268">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-560295.7793741096</v>
       </c>
       <c r="H269">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-547980.4593741096</v>
       </c>
       <c r="H270">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-547980.4593741096</v>
       </c>
       <c r="H271">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:8">
